--- a/src/spreadsheets/Decimals_Easy.xlsx
+++ b/src/spreadsheets/Decimals_Easy.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\Grade 11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.###"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -76,9 +72,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,14 +357,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="4" max="5" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -384,8 +380,8 @@
       <c r="D1" s="1">
         <v>4.3</v>
       </c>
-      <c r="E1" s="2">
-        <f>B1+D1</f>
+      <c r="E1" s="3">
+        <f t="shared" ref="E1:E32" si="0">B1+D1</f>
         <v>12.600000000000001</v>
       </c>
     </row>
@@ -402,8 +398,8 @@
       <c r="D2" s="1">
         <v>1.9</v>
       </c>
-      <c r="E2" s="2">
-        <f>B2+D2</f>
+      <c r="E2" s="3">
+        <f t="shared" si="0"/>
         <v>11.700000000000001</v>
       </c>
     </row>
@@ -420,8 +416,8 @@
       <c r="D3" s="1">
         <v>4.3</v>
       </c>
-      <c r="E3" s="2">
-        <f>B3+D3</f>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
@@ -438,8 +434,8 @@
       <c r="D4" s="1">
         <v>3.4</v>
       </c>
-      <c r="E4" s="2">
-        <f>B4+D4</f>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
     </row>
@@ -456,8 +452,8 @@
       <c r="D5" s="1">
         <v>5.8</v>
       </c>
-      <c r="E5" s="2">
-        <f>B5+D5</f>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -474,8 +470,8 @@
       <c r="D6" s="1">
         <v>1.9</v>
       </c>
-      <c r="E6" s="2">
-        <f>B6+D6</f>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
     </row>
@@ -492,8 +488,8 @@
       <c r="D7" s="1">
         <v>6.9</v>
       </c>
-      <c r="E7" s="2">
-        <f>B7+D7</f>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
     </row>
@@ -510,8 +506,8 @@
       <c r="D8" s="1">
         <v>0.3</v>
       </c>
-      <c r="E8" s="2">
-        <f>B8+D8</f>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
     </row>
@@ -528,8 +524,8 @@
       <c r="D9" s="1">
         <v>2.1</v>
       </c>
-      <c r="E9" s="2">
-        <f>B9+D9</f>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
@@ -546,8 +542,8 @@
       <c r="D10" s="1">
         <v>3.6</v>
       </c>
-      <c r="E10" s="2">
-        <f>B10+D10</f>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -564,8 +560,8 @@
       <c r="D11" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E11" s="2">
-        <f>B11+D11</f>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
         <v>17.200000000000003</v>
       </c>
     </row>
@@ -582,8 +578,8 @@
       <c r="D12" s="1">
         <v>6.3</v>
       </c>
-      <c r="E12" s="2">
-        <f>B12+D12</f>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
         <v>15.7</v>
       </c>
     </row>
@@ -600,8 +596,8 @@
       <c r="D13" s="1">
         <v>7.6</v>
       </c>
-      <c r="E13" s="2">
-        <f>B13+D13</f>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
     </row>
@@ -618,8 +614,8 @@
       <c r="D14" s="1">
         <v>4.2</v>
       </c>
-      <c r="E14" s="2">
-        <f>B14+D14</f>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -636,8 +632,8 @@
       <c r="D15" s="1">
         <v>7.1</v>
       </c>
-      <c r="E15" s="2">
-        <f>B15+D15</f>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
         <v>13.7</v>
       </c>
     </row>
@@ -654,8 +650,8 @@
       <c r="D16" s="1">
         <v>3.6</v>
       </c>
-      <c r="E16" s="2">
-        <f>B16+D16</f>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -672,8 +668,8 @@
       <c r="D17" s="1">
         <v>7.4</v>
       </c>
-      <c r="E17" s="2">
-        <f>B17+D17</f>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
     </row>
@@ -690,8 +686,8 @@
       <c r="D18" s="1">
         <v>3.4</v>
       </c>
-      <c r="E18" s="2">
-        <f>B18+D18</f>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
     </row>
@@ -708,8 +704,8 @@
       <c r="D19" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E19" s="2">
-        <f>B19+D19</f>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
         <v>14.299999999999999</v>
       </c>
     </row>
@@ -726,8 +722,8 @@
       <c r="D20" s="1">
         <v>0.8</v>
       </c>
-      <c r="E20" s="2">
-        <f>B20+D20</f>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -744,8 +740,8 @@
       <c r="D21" s="1">
         <v>6.7</v>
       </c>
-      <c r="E21" s="2">
-        <f>B21+D21</f>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
         <v>11.600000000000001</v>
       </c>
     </row>
@@ -762,8 +758,8 @@
       <c r="D22" s="1">
         <v>1.7</v>
       </c>
-      <c r="E22" s="2">
-        <f>B22+D22</f>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
@@ -780,8 +776,8 @@
       <c r="D23" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E23" s="2">
-        <f>B23+D23</f>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
     </row>
@@ -798,8 +794,8 @@
       <c r="D24" s="1">
         <v>6.9</v>
       </c>
-      <c r="E24" s="2">
-        <f>B24+D24</f>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
     </row>
@@ -816,8 +812,8 @@
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="2">
-        <f>B25+D25</f>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
     </row>
@@ -834,8 +830,8 @@
       <c r="D26" s="1">
         <v>3.5</v>
       </c>
-      <c r="E26" s="2">
-        <f>B26+D26</f>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
     </row>
@@ -852,8 +848,8 @@
       <c r="D27" s="1">
         <v>9.4</v>
       </c>
-      <c r="E27" s="2">
-        <f>B27+D27</f>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -870,8 +866,8 @@
       <c r="D28" s="1">
         <v>6.5</v>
       </c>
-      <c r="E28" s="2">
-        <f>B28+D28</f>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
     </row>
@@ -888,8 +884,8 @@
       <c r="D29" s="1">
         <v>7.4</v>
       </c>
-      <c r="E29" s="2">
-        <f>B29+D29</f>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
@@ -906,8 +902,8 @@
       <c r="D30" s="1">
         <v>9.9</v>
       </c>
-      <c r="E30" s="2">
-        <f>B30+D30</f>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
     </row>
@@ -924,8 +920,8 @@
       <c r="D31" s="1">
         <v>0.3</v>
       </c>
-      <c r="E31" s="2">
-        <f>B31+D31</f>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
         <v>3.6999999999999997</v>
       </c>
     </row>
@@ -942,8 +938,8 @@
       <c r="D32" s="1">
         <v>8.6</v>
       </c>
-      <c r="E32" s="2">
-        <f>B32+D32</f>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -960,8 +956,8 @@
       <c r="D33" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E33" s="2">
-        <f>B33+D33</f>
+      <c r="E33" s="3">
+        <f t="shared" ref="E33:E50" si="1">B33+D33</f>
         <v>17.700000000000003</v>
       </c>
     </row>
@@ -978,8 +974,8 @@
       <c r="D34" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E34" s="2">
-        <f>B34+D34</f>
+      <c r="E34" s="3">
+        <f t="shared" si="1"/>
         <v>13.2</v>
       </c>
     </row>
@@ -996,8 +992,8 @@
       <c r="D35" s="1">
         <v>9.9</v>
       </c>
-      <c r="E35" s="2">
-        <f>B35+D35</f>
+      <c r="E35" s="3">
+        <f t="shared" si="1"/>
         <v>12.600000000000001</v>
       </c>
     </row>
@@ -1014,8 +1010,8 @@
       <c r="D36" s="1">
         <v>3.8</v>
       </c>
-      <c r="E36" s="2">
-        <f>B36+D36</f>
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
@@ -1032,8 +1028,8 @@
       <c r="D37" s="1">
         <v>0.2</v>
       </c>
-      <c r="E37" s="2">
-        <f>B37+D37</f>
+      <c r="E37" s="3">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
@@ -1050,8 +1046,8 @@
       <c r="D38" s="1">
         <v>6.5</v>
       </c>
-      <c r="E38" s="2">
-        <f>B38+D38</f>
+      <c r="E38" s="3">
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
     </row>
@@ -1068,8 +1064,8 @@
       <c r="D39" s="1">
         <v>7.8</v>
       </c>
-      <c r="E39" s="2">
-        <f>B39+D39</f>
+      <c r="E39" s="3">
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -1086,8 +1082,8 @@
       <c r="D40" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E40" s="2">
-        <f>B40+D40</f>
+      <c r="E40" s="3">
+        <f t="shared" si="1"/>
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -1104,8 +1100,8 @@
       <c r="D41" s="1">
         <v>7.8</v>
       </c>
-      <c r="E41" s="2">
-        <f>B41+D41</f>
+      <c r="E41" s="3">
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -1122,8 +1118,8 @@
       <c r="D42" s="1">
         <v>8.5</v>
       </c>
-      <c r="E42" s="2">
-        <f>B42+D42</f>
+      <c r="E42" s="3">
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
     </row>
@@ -1140,8 +1136,8 @@
       <c r="D43" s="1">
         <v>9.1</v>
       </c>
-      <c r="E43" s="2">
-        <f>B43+D43</f>
+      <c r="E43" s="3">
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
     </row>
@@ -1158,8 +1154,8 @@
       <c r="D44" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E44" s="2">
-        <f>B44+D44</f>
+      <c r="E44" s="3">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -1176,8 +1172,8 @@
       <c r="D45" s="1">
         <v>6.5</v>
       </c>
-      <c r="E45" s="2">
-        <f>B45+D45</f>
+      <c r="E45" s="3">
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -1194,8 +1190,8 @@
       <c r="D46" s="1">
         <v>3.6</v>
       </c>
-      <c r="E46" s="2">
-        <f>B46+D46</f>
+      <c r="E46" s="3">
+        <f t="shared" si="1"/>
         <v>12.6</v>
       </c>
     </row>
@@ -1212,8 +1208,8 @@
       <c r="D47" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E47" s="2">
-        <f>B47+D47</f>
+      <c r="E47" s="3">
+        <f t="shared" si="1"/>
         <v>7.8999999999999995</v>
       </c>
     </row>
@@ -1230,8 +1226,8 @@
       <c r="D48" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E48" s="2">
-        <f>B48+D48</f>
+      <c r="E48" s="3">
+        <f t="shared" si="1"/>
         <v>8.3999999999999986</v>
       </c>
     </row>
@@ -1248,8 +1244,8 @@
       <c r="D49" s="1">
         <v>8.6</v>
       </c>
-      <c r="E49" s="2">
-        <f>B49+D49</f>
+      <c r="E49" s="3">
+        <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
     </row>
@@ -1266,8 +1262,8 @@
       <c r="D50" s="1">
         <v>7.8</v>
       </c>
-      <c r="E50" s="2">
-        <f>B50+D50</f>
+      <c r="E50" s="3">
+        <f t="shared" si="1"/>
         <v>10.9</v>
       </c>
     </row>
@@ -1284,8 +1280,8 @@
       <c r="D51" s="1">
         <v>1.7</v>
       </c>
-      <c r="E51" s="2">
-        <f>B51-D51</f>
+      <c r="E51" s="3">
+        <f t="shared" ref="E51:E82" si="2">B51-D51</f>
         <v>4.8999999999999995</v>
       </c>
     </row>
@@ -1302,8 +1298,8 @@
       <c r="D52" s="1">
         <v>0.4</v>
       </c>
-      <c r="E52" s="2">
-        <f>B52-D52</f>
+      <c r="E52" s="3">
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -1320,8 +1316,8 @@
       <c r="D53" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E53" s="2">
-        <f>B53-D53</f>
+      <c r="E53" s="3">
+        <f t="shared" si="2"/>
         <v>8.6</v>
       </c>
     </row>
@@ -1338,8 +1334,8 @@
       <c r="D54" s="1">
         <v>1.2</v>
       </c>
-      <c r="E54" s="2">
-        <f>B54-D54</f>
+      <c r="E54" s="3">
+        <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
     </row>
@@ -1356,8 +1352,8 @@
       <c r="D55" s="1">
         <v>0.3</v>
       </c>
-      <c r="E55" s="2">
-        <f>B55-D55</f>
+      <c r="E55" s="3">
+        <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
@@ -1374,8 +1370,8 @@
       <c r="D56" s="1">
         <v>1.8</v>
       </c>
-      <c r="E56" s="2">
-        <f>B56-D56</f>
+      <c r="E56" s="3">
+        <f t="shared" si="2"/>
         <v>6.5000000000000009</v>
       </c>
     </row>
@@ -1392,8 +1388,8 @@
       <c r="D57" s="1">
         <v>3.4</v>
       </c>
-      <c r="E57" s="2">
-        <f>B57-D57</f>
+      <c r="E57" s="3">
+        <f t="shared" si="2"/>
         <v>6.2999999999999989</v>
       </c>
     </row>
@@ -1410,8 +1406,8 @@
       <c r="D58" s="1">
         <v>3.2</v>
       </c>
-      <c r="E58" s="2">
-        <f>B58-D58</f>
+      <c r="E58" s="3">
+        <f t="shared" si="2"/>
         <v>5.8999999999999995</v>
       </c>
     </row>
@@ -1428,8 +1424,8 @@
       <c r="D59" s="1">
         <v>4</v>
       </c>
-      <c r="E59" s="2">
-        <f>B59-D59</f>
+      <c r="E59" s="3">
+        <f t="shared" si="2"/>
         <v>5.3000000000000007</v>
       </c>
     </row>
@@ -1446,8 +1442,8 @@
       <c r="D60" s="1">
         <v>3.3</v>
       </c>
-      <c r="E60" s="2">
-        <f>B60-D60</f>
+      <c r="E60" s="3">
+        <f t="shared" si="2"/>
         <v>5.0000000000000009</v>
       </c>
     </row>
@@ -1464,8 +1460,8 @@
       <c r="D61" s="1">
         <v>5.2</v>
       </c>
-      <c r="E61" s="2">
-        <f>B61-D61</f>
+      <c r="E61" s="3">
+        <f t="shared" si="2"/>
         <v>4.1000000000000005</v>
       </c>
     </row>
@@ -1482,8 +1478,8 @@
       <c r="D62" s="1">
         <v>2.9</v>
       </c>
-      <c r="E62" s="2">
-        <f>B62-D62</f>
+      <c r="E62" s="3">
+        <f t="shared" si="2"/>
         <v>3.8000000000000003</v>
       </c>
     </row>
@@ -1500,8 +1496,8 @@
       <c r="D63" s="1">
         <v>2</v>
       </c>
-      <c r="E63" s="2">
-        <f>B63-D63</f>
+      <c r="E63" s="3">
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
     </row>
@@ -1518,8 +1514,8 @@
       <c r="D64" s="1">
         <v>1.8</v>
       </c>
-      <c r="E64" s="2">
-        <f>B64-D64</f>
+      <c r="E64" s="3">
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
     </row>
@@ -1536,8 +1532,8 @@
       <c r="D65" s="1">
         <v>0.3</v>
       </c>
-      <c r="E65" s="2">
-        <f>B65-D65</f>
+      <c r="E65" s="3">
+        <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
     </row>
@@ -1554,8 +1550,8 @@
       <c r="D66" s="1">
         <v>0.9</v>
       </c>
-      <c r="E66" s="2">
-        <f>B66-D66</f>
+      <c r="E66" s="3">
+        <f t="shared" si="2"/>
         <v>3.1999999999999997</v>
       </c>
     </row>
@@ -1572,8 +1568,8 @@
       <c r="D67" s="1">
         <v>2.5</v>
       </c>
-      <c r="E67" s="2">
-        <f>B67-D67</f>
+      <c r="E67" s="3">
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
     </row>
@@ -1590,8 +1586,8 @@
       <c r="D68" s="1">
         <v>6.4</v>
       </c>
-      <c r="E68" s="2">
-        <f>B68-D68</f>
+      <c r="E68" s="3">
+        <f t="shared" si="2"/>
         <v>1.9000000000000004</v>
       </c>
     </row>
@@ -1608,8 +1604,8 @@
       <c r="D69" s="1">
         <v>7.5</v>
       </c>
-      <c r="E69" s="2">
-        <f>B69-D69</f>
+      <c r="E69" s="3">
+        <f t="shared" si="2"/>
         <v>1.5999999999999996</v>
       </c>
     </row>
@@ -1626,8 +1622,8 @@
       <c r="D70" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E70" s="2">
-        <f>B70-D70</f>
+      <c r="E70" s="3">
+        <f t="shared" si="2"/>
         <v>1.3999999999999995</v>
       </c>
     </row>
@@ -1644,8 +1640,8 @@
       <c r="D71" s="1">
         <v>5.2</v>
       </c>
-      <c r="E71" s="2">
-        <f>B71-D71</f>
+      <c r="E71" s="3">
+        <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -1662,8 +1658,8 @@
       <c r="D72" s="1">
         <v>7.5</v>
       </c>
-      <c r="E72" s="2">
-        <f>B72-D72</f>
+      <c r="E72" s="3">
+        <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
     </row>
@@ -1680,8 +1676,8 @@
       <c r="D73" s="1">
         <v>5.6</v>
       </c>
-      <c r="E73" s="2">
-        <f>B73-D73</f>
+      <c r="E73" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1698,8 +1694,8 @@
       <c r="D74" s="1">
         <v>3.5</v>
       </c>
-      <c r="E74" s="2">
-        <f>B74-D74</f>
+      <c r="E74" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1716,8 +1712,8 @@
       <c r="D75" s="1">
         <v>8.6</v>
       </c>
-      <c r="E75" s="2">
-        <f>B75-D75</f>
+      <c r="E75" s="3">
+        <f t="shared" si="2"/>
         <v>0.80000000000000071</v>
       </c>
     </row>
@@ -1734,8 +1730,8 @@
       <c r="D76" s="1">
         <v>2</v>
       </c>
-      <c r="E76" s="2">
-        <f>B76-D76</f>
+      <c r="E76" s="3">
+        <f t="shared" si="2"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -1752,8 +1748,8 @@
       <c r="D77" s="1">
         <v>1.7</v>
       </c>
-      <c r="E77" s="2">
-        <f>B77-D77</f>
+      <c r="E77" s="3">
+        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -1770,8 +1766,8 @@
       <c r="D78" s="1">
         <v>0.3</v>
       </c>
-      <c r="E78" s="2">
-        <f>B78-D78</f>
+      <c r="E78" s="3">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -1788,8 +1784,8 @@
       <c r="D79" s="1">
         <v>6.8</v>
       </c>
-      <c r="E79" s="2">
-        <f>B79-D79</f>
+      <c r="E79" s="3">
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -1806,8 +1802,8 @@
       <c r="D80" s="1">
         <v>5.8</v>
       </c>
-      <c r="E80" s="2">
-        <f>B80-D80</f>
+      <c r="E80" s="3">
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -1824,8 +1820,8 @@
       <c r="D81" s="1">
         <v>0.6</v>
       </c>
-      <c r="E81" s="2">
-        <f>B81-D81</f>
+      <c r="E81" s="3">
+        <f t="shared" si="2"/>
         <v>0.79999999999999993</v>
       </c>
     </row>
@@ -1842,8 +1838,8 @@
       <c r="D82" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E82" s="2">
-        <f>B82-D82</f>
+      <c r="E82" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1860,8 +1856,8 @@
       <c r="D83" s="1">
         <v>6.8</v>
       </c>
-      <c r="E83" s="2">
-        <f>B83-D83</f>
+      <c r="E83" s="3">
+        <f t="shared" ref="E83:E100" si="3">B83-D83</f>
         <v>1.8999999999999995</v>
       </c>
     </row>
@@ -1878,8 +1874,8 @@
       <c r="D84" s="1">
         <v>5.7</v>
       </c>
-      <c r="E84" s="2">
-        <f>B84-D84</f>
+      <c r="E84" s="3">
+        <f t="shared" si="3"/>
         <v>2.3999999999999995</v>
       </c>
     </row>
@@ -1896,8 +1892,8 @@
       <c r="D85" s="1">
         <v>3.8</v>
       </c>
-      <c r="E85" s="2">
-        <f>B85-D85</f>
+      <c r="E85" s="3">
+        <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -1914,8 +1910,8 @@
       <c r="D86" s="1">
         <v>1.7</v>
       </c>
-      <c r="E86" s="2">
-        <f>B86-D86</f>
+      <c r="E86" s="3">
+        <f t="shared" si="3"/>
         <v>3.3</v>
       </c>
     </row>
@@ -1932,8 +1928,8 @@
       <c r="D87" s="1">
         <v>0.2</v>
       </c>
-      <c r="E87" s="2">
-        <f>B87-D87</f>
+      <c r="E87" s="3">
+        <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
     </row>
@@ -1950,8 +1946,8 @@
       <c r="D88" s="1">
         <v>0.9</v>
       </c>
-      <c r="E88" s="2">
-        <f>B88-D88</f>
+      <c r="E88" s="3">
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
     </row>
@@ -1968,8 +1964,8 @@
       <c r="D89" s="1">
         <v>3.5</v>
       </c>
-      <c r="E89" s="2">
-        <f>B89-D89</f>
+      <c r="E89" s="3">
+        <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
     </row>
@@ -1986,8 +1982,8 @@
       <c r="D90" s="1">
         <v>1.8</v>
       </c>
-      <c r="E90" s="2">
-        <f>B90-D90</f>
+      <c r="E90" s="3">
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
     </row>
@@ -2004,8 +2000,8 @@
       <c r="D91" s="1">
         <v>3.1</v>
       </c>
-      <c r="E91" s="2">
-        <f>B91-D91</f>
+      <c r="E91" s="3">
+        <f t="shared" si="3"/>
         <v>4.3000000000000007</v>
       </c>
     </row>
@@ -2022,8 +2018,8 @@
       <c r="D92" s="1">
         <v>2.9</v>
       </c>
-      <c r="E92" s="2">
-        <f>B92-D92</f>
+      <c r="E92" s="3">
+        <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -2040,8 +2036,8 @@
       <c r="D93" s="1">
         <v>0.9</v>
       </c>
-      <c r="E93" s="2">
-        <f>B93-D93</f>
+      <c r="E93" s="3">
+        <f t="shared" si="3"/>
         <v>5.1999999999999993</v>
       </c>
     </row>
@@ -2058,8 +2054,8 @@
       <c r="D94" s="1">
         <v>3.8</v>
       </c>
-      <c r="E94" s="2">
-        <f>B94-D94</f>
+      <c r="E94" s="3">
+        <f t="shared" si="3"/>
         <v>5.3999999999999995</v>
       </c>
     </row>
@@ -2076,8 +2072,8 @@
       <c r="D95" s="1">
         <v>1.7</v>
       </c>
-      <c r="E95" s="2">
-        <f>B95-D95</f>
+      <c r="E95" s="3">
+        <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
     </row>
@@ -2094,8 +2090,8 @@
       <c r="D96" s="1">
         <v>3.6</v>
       </c>
-      <c r="E96" s="2">
-        <f>B96-D96</f>
+      <c r="E96" s="3">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2112,8 +2108,8 @@
       <c r="D97" s="1">
         <v>1.6</v>
       </c>
-      <c r="E97" s="2">
-        <f>B97-D97</f>
+      <c r="E97" s="3">
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
     </row>
@@ -2130,8 +2126,8 @@
       <c r="D98" s="1">
         <v>0.5</v>
       </c>
-      <c r="E98" s="2">
-        <f>B98-D98</f>
+      <c r="E98" s="3">
+        <f t="shared" si="3"/>
         <v>7.8000000000000007</v>
       </c>
     </row>
@@ -2148,8 +2144,8 @@
       <c r="D99" s="1">
         <v>0.7</v>
       </c>
-      <c r="E99" s="2">
-        <f>B99-D99</f>
+      <c r="E99" s="3">
+        <f t="shared" si="3"/>
         <v>8.1000000000000014</v>
       </c>
     </row>
@@ -2166,12 +2162,13 @@
       <c r="D100" s="1">
         <v>0.8</v>
       </c>
-      <c r="E100" s="2">
-        <f>B100-D100</f>
+      <c r="E100" s="3">
+        <f t="shared" si="3"/>
         <v>8.3999999999999986</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>